--- a/tables/ODE/ODE_rand_F_09_Cr_05_Jr_03_pop_30/ODE_table2_F9_dim10.xlsx
+++ b/tables/ODE/ODE_rand_F_09_Cr_05_Jr_03_pop_30/ODE_table2_F9_dim10.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -190,7 +189,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,14 +224,15 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -517,18 +521,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:BA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:53">
       <c r="A1" s="1" t="s">

--- a/tables/ODE/ODE_rand_F_09_Cr_05_Jr_03_pop_30/ODE_table2_F9_dim10.xlsx
+++ b/tables/ODE/ODE_rand_F_09_Cr_05_Jr_03_pop_30/ODE_table2_F9_dim10.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>Gen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>MaxFES</t>
   </si>
   <si>
     <t>Run  0</t>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Run 49</t>
-  </si>
-  <si>
-    <t>Run 50</t>
   </si>
   <si>
     <t>Mean</t>
@@ -526,7 +523,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,11 +688,8 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -850,15 +844,12 @@
         <v>194907334.1965855</v>
       </c>
       <c r="AZ2" t="n">
-        <v>327395623.2796769</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>260473311.5022796</v>
+        <v>259134865.2667316</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>0.001</v>
       </c>
       <c r="B3" t="n">
         <v>150282468.343341</v>
@@ -1011,15 +1002,12 @@
         <v>194907334.1965855</v>
       </c>
       <c r="AZ3" t="n">
-        <v>128603544.0437526</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>145254433.3143675</v>
+        <v>145587451.0997798</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="n">
-        <v>26</v>
+        <v>0.01</v>
       </c>
       <c r="B4" t="n">
         <v>58737829.64853808</v>
@@ -1030,7 +1018,9 @@
       <c r="D4" t="n">
         <v>35202887.52955396</v>
       </c>
-      <c r="E4" t="s"/>
+      <c r="E4" t="n">
+        <v>17286899.45943616</v>
+      </c>
       <c r="F4" t="n">
         <v>17810809.12996015</v>
       </c>
@@ -1076,7 +1066,9 @@
       <c r="T4" t="n">
         <v>47112353.45155159</v>
       </c>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>24690887.31392617</v>
+      </c>
       <c r="V4" t="n">
         <v>30249435.75334756</v>
       </c>
@@ -1098,7 +1090,9 @@
       <c r="AB4" t="n">
         <v>27856985.63064453</v>
       </c>
-      <c r="AC4" t="s"/>
+      <c r="AC4" t="n">
+        <v>40614674.89283855</v>
+      </c>
       <c r="AD4" t="n">
         <v>15812208.97952245</v>
       </c>
@@ -1114,13 +1108,21 @@
       <c r="AH4" t="n">
         <v>26421703.93581238</v>
       </c>
-      <c r="AI4" t="s"/>
-      <c r="AJ4" t="s"/>
-      <c r="AK4" t="s"/>
+      <c r="AI4" t="n">
+        <v>42146454.4084743</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>24645318.449588</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>53020904.76798419</v>
+      </c>
       <c r="AL4" t="n">
         <v>16175473.02970746</v>
       </c>
-      <c r="AM4" t="s"/>
+      <c r="AM4" t="n">
+        <v>12976936.15454425</v>
+      </c>
       <c r="AN4" t="n">
         <v>4002592.32531009</v>
       </c>
@@ -1130,7 +1132,9 @@
       <c r="AP4" t="n">
         <v>47870557.81445594</v>
       </c>
-      <c r="AQ4" t="s"/>
+      <c r="AQ4" t="n">
+        <v>17955953.40191498</v>
+      </c>
       <c r="AR4" t="n">
         <v>37743659.90338745</v>
       </c>
@@ -1143,24 +1147,25 @@
       <c r="AU4" t="n">
         <v>33987534.38814821</v>
       </c>
-      <c r="AV4" t="s"/>
+      <c r="AV4" t="n">
+        <v>10879929.92939663</v>
+      </c>
       <c r="AW4" t="n">
         <v>32898020.42594007</v>
       </c>
       <c r="AX4" t="n">
         <v>6026635.69418314</v>
       </c>
-      <c r="AY4" t="s"/>
+      <c r="AY4" t="n">
+        <v>35772527.44568813</v>
+      </c>
       <c r="AZ4" t="n">
-        <v>42062500.69888065</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>26515006.80159599</v>
+        <v>26500865.28780692</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="n">
-        <v>259</v>
+        <v>0.1</v>
       </c>
       <c r="B5" t="n">
         <v>801848.80481524</v>
@@ -1168,606 +1173,1574 @@
       <c r="C5" t="n">
         <v>2267376.60854761</v>
       </c>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-      <c r="V5" t="s"/>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
-      <c r="Z5" t="s"/>
-      <c r="AA5" t="s"/>
-      <c r="AB5" t="s"/>
-      <c r="AC5" t="s"/>
-      <c r="AD5" t="s"/>
-      <c r="AE5" t="s"/>
-      <c r="AF5" t="s"/>
-      <c r="AG5" t="s"/>
-      <c r="AH5" t="s"/>
-      <c r="AI5" t="s"/>
-      <c r="AJ5" t="s"/>
-      <c r="AK5" t="s"/>
-      <c r="AL5" t="s"/>
-      <c r="AM5" t="s"/>
-      <c r="AN5" t="s"/>
-      <c r="AO5" t="s"/>
-      <c r="AP5" t="s"/>
-      <c r="AQ5" t="s"/>
-      <c r="AR5" t="s"/>
-      <c r="AS5" t="s"/>
-      <c r="AT5" t="s"/>
-      <c r="AU5" t="s"/>
-      <c r="AV5" t="s"/>
-      <c r="AW5" t="s"/>
-      <c r="AX5" t="s"/>
-      <c r="AY5" t="s"/>
-      <c r="AZ5" t="s"/>
-      <c r="BA5" t="n">
-        <v>1534612.70668143</v>
+      <c r="D5" t="n">
+        <v>595937.7661348</v>
+      </c>
+      <c r="E5" t="n">
+        <v>881558.2108043201</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1317638.88879227</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1530168.27034038</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3170212.46014436</v>
+      </c>
+      <c r="I5" t="n">
+        <v>726020.70887915</v>
+      </c>
+      <c r="J5" t="n">
+        <v>839196.56952258</v>
+      </c>
+      <c r="K5" t="n">
+        <v>430169.55843613</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3230742.40337776</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2940030.21979826</v>
+      </c>
+      <c r="N5" t="n">
+        <v>735357.18174315</v>
+      </c>
+      <c r="O5" t="n">
+        <v>527602.24986221</v>
+      </c>
+      <c r="P5" t="n">
+        <v>390554.08580383</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>849577.42036231</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1786015.80598363</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1649474.97068001</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1932891.80682472</v>
+      </c>
+      <c r="U5" t="n">
+        <v>463504.11674411</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1307614.28102205</v>
+      </c>
+      <c r="W5" t="n">
+        <v>968073.35393694</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3924768.12471303</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>977756.90536809</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1131964.8238002</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1385807.36176255</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>3534301.5165813</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1638470.36266427</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>203727.88806636</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1180443.36411096</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1918548.88086847</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>595991.79592808</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>583151.40520712</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1473348.94608541</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1425266.35260519</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1938733.41566641</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2445367.64236098</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1580547.52215896</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>823345.42455652</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>437797.63883559</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1867154.92880876</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>371081.25471975</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>2043188.4557476</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1088478.64062953</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>857634.8304315</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>2245439.89697111</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>2497891.44592182</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>1028062.71594812</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>723307.38776907</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>2390634.23029096</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>1433075.57802267</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="n">
-        <v>518</v>
+        <v>0.2</v>
       </c>
       <c r="B6" t="n">
         <v>316918.59571669</v>
       </c>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-      <c r="M6" t="s"/>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
-      <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
-      <c r="V6" t="s"/>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
-      <c r="Z6" t="s"/>
-      <c r="AA6" t="s"/>
-      <c r="AB6" t="s"/>
-      <c r="AC6" t="s"/>
-      <c r="AD6" t="s"/>
-      <c r="AE6" t="s"/>
-      <c r="AF6" t="s"/>
-      <c r="AG6" t="s"/>
-      <c r="AH6" t="s"/>
-      <c r="AI6" t="s"/>
-      <c r="AJ6" t="s"/>
-      <c r="AK6" t="s"/>
-      <c r="AL6" t="s"/>
-      <c r="AM6" t="s"/>
-      <c r="AN6" t="s"/>
-      <c r="AO6" t="s"/>
-      <c r="AP6" t="s"/>
-      <c r="AQ6" t="s"/>
-      <c r="AR6" t="s"/>
-      <c r="AS6" t="s"/>
-      <c r="AT6" t="s"/>
-      <c r="AU6" t="s"/>
-      <c r="AV6" t="s"/>
-      <c r="AW6" t="s"/>
-      <c r="AX6" t="s"/>
-      <c r="AY6" t="s"/>
-      <c r="AZ6" t="s"/>
-      <c r="BA6" t="n">
-        <v>316918.59571669</v>
+      <c r="C6" t="n">
+        <v>604866.22075229</v>
+      </c>
+      <c r="D6" t="n">
+        <v>193864.40851626</v>
+      </c>
+      <c r="E6" t="n">
+        <v>144438.57718383</v>
+      </c>
+      <c r="F6" t="n">
+        <v>404077.2993448</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1075963.94672126</v>
+      </c>
+      <c r="H6" t="n">
+        <v>559368.78079021</v>
+      </c>
+      <c r="I6" t="n">
+        <v>726020.70887915</v>
+      </c>
+      <c r="J6" t="n">
+        <v>601636.34659876</v>
+      </c>
+      <c r="K6" t="n">
+        <v>241685.30610033</v>
+      </c>
+      <c r="L6" t="n">
+        <v>220346.54971221</v>
+      </c>
+      <c r="M6" t="n">
+        <v>917736.01035296</v>
+      </c>
+      <c r="N6" t="n">
+        <v>284951.67501792</v>
+      </c>
+      <c r="O6" t="n">
+        <v>449663.06735152</v>
+      </c>
+      <c r="P6" t="n">
+        <v>298491.49454095</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>379647.13907483</v>
+      </c>
+      <c r="R6" t="n">
+        <v>586355.21219888</v>
+      </c>
+      <c r="S6" t="n">
+        <v>365129.12005236</v>
+      </c>
+      <c r="T6" t="n">
+        <v>821646.22439107</v>
+      </c>
+      <c r="U6" t="n">
+        <v>413235.72869388</v>
+      </c>
+      <c r="V6" t="n">
+        <v>553021.80863002</v>
+      </c>
+      <c r="W6" t="n">
+        <v>640391.07080727</v>
+      </c>
+      <c r="X6" t="n">
+        <v>406924.73052567</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>428345.41371538</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>434742.28735249</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>251237.09028695</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1080464.97218747</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>608427.4843734601</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>192410.00650195</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>148612.89977288</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>421256.89721662</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>595571.39280705</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>202660.3978864</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>317284.49258955</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>213777.23747762</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>444288.81837731</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>557557.77546591</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>632650.74275912</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>337578.05996847</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>289430.25616348</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>316732.83545495</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>350904.86511624</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>302409.72337495</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>80627.20390661999</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>618835.2194072501</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>878580.4982483</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>800011.30398696</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>416298.94367964</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>210877.01921867</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>1105040.11927568</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>468859.87957049</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="n">
-        <v>776</v>
+        <v>0.3</v>
       </c>
       <c r="B7" t="n">
         <v>131642.07917404</v>
       </c>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
-      <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
-      <c r="V7" t="s"/>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
-      <c r="Z7" t="s"/>
-      <c r="AA7" t="s"/>
-      <c r="AB7" t="s"/>
-      <c r="AC7" t="s"/>
-      <c r="AD7" t="s"/>
-      <c r="AE7" t="s"/>
-      <c r="AF7" t="s"/>
-      <c r="AG7" t="s"/>
-      <c r="AH7" t="s"/>
-      <c r="AI7" t="s"/>
-      <c r="AJ7" t="s"/>
-      <c r="AK7" t="s"/>
-      <c r="AL7" t="s"/>
-      <c r="AM7" t="s"/>
-      <c r="AN7" t="s"/>
-      <c r="AO7" t="s"/>
-      <c r="AP7" t="s"/>
-      <c r="AQ7" t="s"/>
-      <c r="AR7" t="s"/>
-      <c r="AS7" t="s"/>
-      <c r="AT7" t="s"/>
-      <c r="AU7" t="s"/>
-      <c r="AV7" t="s"/>
-      <c r="AW7" t="s"/>
-      <c r="AX7" t="s"/>
-      <c r="AY7" t="s"/>
-      <c r="AZ7" t="s"/>
-      <c r="BA7" t="n">
-        <v>131642.07917404</v>
+      <c r="C7" t="n">
+        <v>604866.22075229</v>
+      </c>
+      <c r="D7" t="n">
+        <v>176115.20147008</v>
+      </c>
+      <c r="E7" t="n">
+        <v>133458.14890412</v>
+      </c>
+      <c r="F7" t="n">
+        <v>206669.94301412</v>
+      </c>
+      <c r="G7" t="n">
+        <v>192911.65652078</v>
+      </c>
+      <c r="H7" t="n">
+        <v>198256.27619844</v>
+      </c>
+      <c r="I7" t="n">
+        <v>461481.6159125</v>
+      </c>
+      <c r="J7" t="n">
+        <v>142162.41527987</v>
+      </c>
+      <c r="K7" t="n">
+        <v>80827.82414235</v>
+      </c>
+      <c r="L7" t="n">
+        <v>102506.6790285</v>
+      </c>
+      <c r="M7" t="n">
+        <v>254605.78299095</v>
+      </c>
+      <c r="N7" t="n">
+        <v>195729.42393871</v>
+      </c>
+      <c r="O7" t="n">
+        <v>228725.21715932</v>
+      </c>
+      <c r="P7" t="n">
+        <v>228323.06720432</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>133868.51564928</v>
+      </c>
+      <c r="R7" t="n">
+        <v>280313.16068093</v>
+      </c>
+      <c r="S7" t="n">
+        <v>113644.00155867</v>
+      </c>
+      <c r="T7" t="n">
+        <v>152253.95853877</v>
+      </c>
+      <c r="U7" t="n">
+        <v>221448.17947428</v>
+      </c>
+      <c r="V7" t="n">
+        <v>197939.99171137</v>
+      </c>
+      <c r="W7" t="n">
+        <v>199939.57251054</v>
+      </c>
+      <c r="X7" t="n">
+        <v>341292.1022812</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>150701.61127166</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>84765.87303639</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>202000.31515302</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>229579.4046375</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>144321.03676904</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>173847.80386423</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>147209.23731375</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>267780.47364805</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>213547.86946896</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>86470.16738427</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>255547.13437624</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>134644.4017762</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>225320.48052603</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>233228.25579569</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>189213.89128141</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>156787.01688065</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>36456.11682952</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>224387.69456129</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>231515.69896369</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>288733.32199669</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>47781.06167164</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>243047.88232241</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>333988.91134539</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>66721.69694459</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>167552.58462714</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>66674.86898519</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>381147.67560614</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>199239.07042264</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="n">
-        <v>1035</v>
+        <v>0.4</v>
       </c>
       <c r="B8" t="n">
         <v>59376.26321845</v>
       </c>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
-      <c r="M8" t="s"/>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="s"/>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
-      <c r="Z8" t="s"/>
-      <c r="AA8" t="s"/>
-      <c r="AB8" t="s"/>
-      <c r="AC8" t="s"/>
-      <c r="AD8" t="s"/>
-      <c r="AE8" t="s"/>
-      <c r="AF8" t="s"/>
-      <c r="AG8" t="s"/>
-      <c r="AH8" t="s"/>
-      <c r="AI8" t="s"/>
-      <c r="AJ8" t="s"/>
-      <c r="AK8" t="s"/>
-      <c r="AL8" t="s"/>
-      <c r="AM8" t="s"/>
-      <c r="AN8" t="s"/>
-      <c r="AO8" t="s"/>
-      <c r="AP8" t="s"/>
-      <c r="AQ8" t="s"/>
-      <c r="AR8" t="s"/>
-      <c r="AS8" t="s"/>
-      <c r="AT8" t="s"/>
-      <c r="AU8" t="s"/>
-      <c r="AV8" t="s"/>
-      <c r="AW8" t="s"/>
-      <c r="AX8" t="s"/>
-      <c r="AY8" t="s"/>
-      <c r="AZ8" t="s"/>
-      <c r="BA8" t="n">
-        <v>59376.26321845</v>
+      <c r="C8" t="n">
+        <v>414520.5432991</v>
+      </c>
+      <c r="D8" t="n">
+        <v>83311.18141616001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>124488.35926902</v>
+      </c>
+      <c r="F8" t="n">
+        <v>86067.95922203999</v>
+      </c>
+      <c r="G8" t="n">
+        <v>164161.03648981</v>
+      </c>
+      <c r="H8" t="n">
+        <v>190846.52670308</v>
+      </c>
+      <c r="I8" t="n">
+        <v>221935.02716637</v>
+      </c>
+      <c r="J8" t="n">
+        <v>142162.41527987</v>
+      </c>
+      <c r="K8" t="n">
+        <v>51160.64854735</v>
+      </c>
+      <c r="L8" t="n">
+        <v>54056.33245867</v>
+      </c>
+      <c r="M8" t="n">
+        <v>108821.16392805</v>
+      </c>
+      <c r="N8" t="n">
+        <v>57685.74676503</v>
+      </c>
+      <c r="O8" t="n">
+        <v>98153.36865706</v>
+      </c>
+      <c r="P8" t="n">
+        <v>125254.98652561</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>70472.98614798</v>
+      </c>
+      <c r="R8" t="n">
+        <v>128464.33659826</v>
+      </c>
+      <c r="S8" t="n">
+        <v>100235.02615226</v>
+      </c>
+      <c r="T8" t="n">
+        <v>124689.21699682</v>
+      </c>
+      <c r="U8" t="n">
+        <v>140446.10574882</v>
+      </c>
+      <c r="V8" t="n">
+        <v>69055.74351976</v>
+      </c>
+      <c r="W8" t="n">
+        <v>45369.91650214</v>
+      </c>
+      <c r="X8" t="n">
+        <v>152527.7675661</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>130341.6758521</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>84765.87303639</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>45857.45022777</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>228805.26204709</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>69372.53521271</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>116021.89027115</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>103255.22416078</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>235760.99880605</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>90819.24995714</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>42891.2409619</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>106428.53073002</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>58710.98167104</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>119357.45175191</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>147161.08809084</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>173877.34854189</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>79085.07671975</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>34281.61156618</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>50979.93381758</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>199442.09013968</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>137701.83986574</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>47744.78890029</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>149042.25882061</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>86525.79879904</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>65873.25596101</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>167552.58462714</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>65875.36622246</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>150792.13149053</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>116031.72392853</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="n">
-        <v>1294</v>
+        <v>0.5</v>
       </c>
       <c r="B9" t="n">
         <v>44746.46352129</v>
       </c>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
-      <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
-      <c r="V9" t="s"/>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
-      <c r="Z9" t="s"/>
-      <c r="AA9" t="s"/>
-      <c r="AB9" t="s"/>
-      <c r="AC9" t="s"/>
-      <c r="AD9" t="s"/>
-      <c r="AE9" t="s"/>
-      <c r="AF9" t="s"/>
-      <c r="AG9" t="s"/>
-      <c r="AH9" t="s"/>
-      <c r="AI9" t="s"/>
-      <c r="AJ9" t="s"/>
-      <c r="AK9" t="s"/>
-      <c r="AL9" t="s"/>
-      <c r="AM9" t="s"/>
-      <c r="AN9" t="s"/>
-      <c r="AO9" t="s"/>
-      <c r="AP9" t="s"/>
-      <c r="AQ9" t="s"/>
-      <c r="AR9" t="s"/>
-      <c r="AS9" t="s"/>
-      <c r="AT9" t="s"/>
-      <c r="AU9" t="s"/>
-      <c r="AV9" t="s"/>
-      <c r="AW9" t="s"/>
-      <c r="AX9" t="s"/>
-      <c r="AY9" t="s"/>
-      <c r="AZ9" t="s"/>
-      <c r="BA9" t="n">
-        <v>44746.46352129</v>
+      <c r="C9" t="n">
+        <v>170458.76946959</v>
+      </c>
+      <c r="D9" t="n">
+        <v>80545.02769921999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>57863.86596081</v>
+      </c>
+      <c r="F9" t="n">
+        <v>68366.81959917</v>
+      </c>
+      <c r="G9" t="n">
+        <v>91181.25691392001</v>
+      </c>
+      <c r="H9" t="n">
+        <v>153356.34276823</v>
+      </c>
+      <c r="I9" t="n">
+        <v>221567.01089992</v>
+      </c>
+      <c r="J9" t="n">
+        <v>119924.65257153</v>
+      </c>
+      <c r="K9" t="n">
+        <v>48907.5460992</v>
+      </c>
+      <c r="L9" t="n">
+        <v>45619.7688962</v>
+      </c>
+      <c r="M9" t="n">
+        <v>92415.10125598</v>
+      </c>
+      <c r="N9" t="n">
+        <v>41370.33992122</v>
+      </c>
+      <c r="O9" t="n">
+        <v>61323.92277181</v>
+      </c>
+      <c r="P9" t="n">
+        <v>69307.47841436</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>49975.46328502</v>
+      </c>
+      <c r="R9" t="n">
+        <v>36303.41313558</v>
+      </c>
+      <c r="S9" t="n">
+        <v>36313.87564916</v>
+      </c>
+      <c r="T9" t="n">
+        <v>101174.87443351</v>
+      </c>
+      <c r="U9" t="n">
+        <v>91502.84897502</v>
+      </c>
+      <c r="V9" t="n">
+        <v>28327.86673474</v>
+      </c>
+      <c r="W9" t="n">
+        <v>44797.90420354</v>
+      </c>
+      <c r="X9" t="n">
+        <v>135041.57880891</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>69883.7819439</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>66202.66402934999</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>36937.52666545</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>94652.69338469001</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>69372.53521271</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>95734.21542343</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>99510.79858448</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>140136.66015054</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>54471.60821609</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>30449.05626839</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>42263.4781433</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>33819.69243484</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>115000.15253393</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>62885.06603169</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>136144.4758534</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>50486.04977033</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>25646.60095456</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>49599.11845968</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>37412.26914079</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>83260.47181858</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>43353.6438746</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>57375.16045198</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>77914.83284824999</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>23079.9009885</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>115136.15008508</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>36228.77483757</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>54693.432366</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>73840.8600492</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="n">
-        <v>1553</v>
+        <v>0.6</v>
       </c>
       <c r="B10" t="n">
         <v>44141.30476731</v>
       </c>
-      <c r="C10" t="s"/>
-      <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
-      <c r="M10" t="s"/>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
-      <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
-      <c r="V10" t="s"/>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
-      <c r="Z10" t="s"/>
-      <c r="AA10" t="s"/>
-      <c r="AB10" t="s"/>
-      <c r="AC10" t="s"/>
-      <c r="AD10" t="s"/>
-      <c r="AE10" t="s"/>
-      <c r="AF10" t="s"/>
-      <c r="AG10" t="s"/>
-      <c r="AH10" t="s"/>
-      <c r="AI10" t="s"/>
-      <c r="AJ10" t="s"/>
-      <c r="AK10" t="s"/>
-      <c r="AL10" t="s"/>
-      <c r="AM10" t="s"/>
-      <c r="AN10" t="s"/>
-      <c r="AO10" t="s"/>
-      <c r="AP10" t="s"/>
-      <c r="AQ10" t="s"/>
-      <c r="AR10" t="s"/>
-      <c r="AS10" t="s"/>
-      <c r="AT10" t="s"/>
-      <c r="AU10" t="s"/>
-      <c r="AV10" t="s"/>
-      <c r="AW10" t="s"/>
-      <c r="AX10" t="s"/>
-      <c r="AY10" t="s"/>
-      <c r="AZ10" t="s"/>
-      <c r="BA10" t="n">
-        <v>44141.30476731</v>
+      <c r="C10" t="n">
+        <v>168563.15919047</v>
+      </c>
+      <c r="D10" t="n">
+        <v>23413.52305771</v>
+      </c>
+      <c r="E10" t="n">
+        <v>50169.66524655</v>
+      </c>
+      <c r="F10" t="n">
+        <v>56309.0377943</v>
+      </c>
+      <c r="G10" t="n">
+        <v>90913.92989627999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14062.47960839</v>
+      </c>
+      <c r="I10" t="n">
+        <v>81103.64134001</v>
+      </c>
+      <c r="J10" t="n">
+        <v>111766.16190601</v>
+      </c>
+      <c r="K10" t="n">
+        <v>21626.80863462</v>
+      </c>
+      <c r="L10" t="n">
+        <v>42586.25643862</v>
+      </c>
+      <c r="M10" t="n">
+        <v>59148.57879049</v>
+      </c>
+      <c r="N10" t="n">
+        <v>29597.47174252</v>
+      </c>
+      <c r="O10" t="n">
+        <v>61323.92277181</v>
+      </c>
+      <c r="P10" t="n">
+        <v>69181.28472561001</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>23173.55086937</v>
+      </c>
+      <c r="R10" t="n">
+        <v>17086.53125076</v>
+      </c>
+      <c r="S10" t="n">
+        <v>34612.37723295</v>
+      </c>
+      <c r="T10" t="n">
+        <v>84924.91257664999</v>
+      </c>
+      <c r="U10" t="n">
+        <v>64661.87336196</v>
+      </c>
+      <c r="V10" t="n">
+        <v>27666.85325541</v>
+      </c>
+      <c r="W10" t="n">
+        <v>27762.62106051</v>
+      </c>
+      <c r="X10" t="n">
+        <v>37885.25710813</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>69883.7819439</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>49970.60447331</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>7263.54459627</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>78387.39541858999</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>39356.20944725</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>67985.00828150001</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>33007.07807176</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>38200.33035373</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>28653.68290037</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>30409.88052056</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>42263.4781433</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>17252.22061693</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>76945.69432762</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>42779.32826011</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>100232.95505749</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>27633.43687324</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>23070.93405559</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>49599.11845968</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>36343.49942004</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>29917.85899069</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>27363.5746557</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>14640.86983595</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>69048.31897275</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>21188.621464</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>46533.49754396</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>36228.77483757</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>38926.76687906</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>47695.35334055</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="n">
-        <v>1812</v>
+        <v>0.7</v>
       </c>
       <c r="B11" t="n">
         <v>12984.83259029</v>
       </c>
-      <c r="C11" t="s"/>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
-      <c r="L11" t="s"/>
-      <c r="M11" t="s"/>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
-      <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
-      <c r="V11" t="s"/>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
-      <c r="Z11" t="s"/>
-      <c r="AA11" t="s"/>
-      <c r="AB11" t="s"/>
-      <c r="AC11" t="s"/>
-      <c r="AD11" t="s"/>
-      <c r="AE11" t="s"/>
-      <c r="AF11" t="s"/>
-      <c r="AG11" t="s"/>
-      <c r="AH11" t="s"/>
-      <c r="AI11" t="s"/>
-      <c r="AJ11" t="s"/>
-      <c r="AK11" t="s"/>
-      <c r="AL11" t="s"/>
-      <c r="AM11" t="s"/>
-      <c r="AN11" t="s"/>
-      <c r="AO11" t="s"/>
-      <c r="AP11" t="s"/>
-      <c r="AQ11" t="s"/>
-      <c r="AR11" t="s"/>
-      <c r="AS11" t="s"/>
-      <c r="AT11" t="s"/>
-      <c r="AU11" t="s"/>
-      <c r="AV11" t="s"/>
-      <c r="AW11" t="s"/>
-      <c r="AX11" t="s"/>
-      <c r="AY11" t="s"/>
-      <c r="AZ11" t="s"/>
-      <c r="BA11" t="n">
-        <v>12984.83259029</v>
+      <c r="C11" t="n">
+        <v>165083.23751359</v>
+      </c>
+      <c r="D11" t="n">
+        <v>23413.52305771</v>
+      </c>
+      <c r="E11" t="n">
+        <v>36653.58324512</v>
+      </c>
+      <c r="F11" t="n">
+        <v>32870.03586783</v>
+      </c>
+      <c r="G11" t="n">
+        <v>50932.15794617</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13784.48860723</v>
+      </c>
+      <c r="I11" t="n">
+        <v>66660.24628904001</v>
+      </c>
+      <c r="J11" t="n">
+        <v>37809.46547607</v>
+      </c>
+      <c r="K11" t="n">
+        <v>13297.62061503</v>
+      </c>
+      <c r="L11" t="n">
+        <v>40271.61892242</v>
+      </c>
+      <c r="M11" t="n">
+        <v>58512.33028457</v>
+      </c>
+      <c r="N11" t="n">
+        <v>22470.50868406</v>
+      </c>
+      <c r="O11" t="n">
+        <v>48133.04812617</v>
+      </c>
+      <c r="P11" t="n">
+        <v>51551.81686104</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>12562.679149</v>
+      </c>
+      <c r="R11" t="n">
+        <v>17086.53125076</v>
+      </c>
+      <c r="S11" t="n">
+        <v>17580.81230003</v>
+      </c>
+      <c r="T11" t="n">
+        <v>76087.64835047</v>
+      </c>
+      <c r="U11" t="n">
+        <v>50420.09332517</v>
+      </c>
+      <c r="V11" t="n">
+        <v>12614.70519945</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8831.63304929</v>
+      </c>
+      <c r="X11" t="n">
+        <v>32061.37015444</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>40806.49475508</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>49970.60447331</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>7263.54459627</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>45669.41028852</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>13903.6671446</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>37522.24943556</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15424.91191375</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>34744.22442562</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>23410.27860997</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>25056.54404714</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>32700.78367827</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11459.62094286</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>36149.32695315</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>36947.41932488</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>21214.41536445</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>18873.60150283</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>19279.86232001</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>37467.48683794</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>35606.36616141</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>29786.16759047</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>22034.94888373</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>14562.04092617</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>61036.56239913</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>20396.88836223</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>43978.01817085</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>12238.43655103</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>38886.06783983</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>33761.27860728</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="n">
-        <v>2070</v>
+        <v>0.8</v>
       </c>
       <c r="B12" t="n">
         <v>12984.83259029</v>
       </c>
-      <c r="C12" t="s"/>
-      <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
-      <c r="K12" t="s"/>
-      <c r="L12" t="s"/>
-      <c r="M12" t="s"/>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
-      <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
-      <c r="V12" t="s"/>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
-      <c r="Z12" t="s"/>
-      <c r="AA12" t="s"/>
-      <c r="AB12" t="s"/>
-      <c r="AC12" t="s"/>
-      <c r="AD12" t="s"/>
-      <c r="AE12" t="s"/>
-      <c r="AF12" t="s"/>
-      <c r="AG12" t="s"/>
-      <c r="AH12" t="s"/>
-      <c r="AI12" t="s"/>
-      <c r="AJ12" t="s"/>
-      <c r="AK12" t="s"/>
-      <c r="AL12" t="s"/>
-      <c r="AM12" t="s"/>
-      <c r="AN12" t="s"/>
-      <c r="AO12" t="s"/>
-      <c r="AP12" t="s"/>
-      <c r="AQ12" t="s"/>
-      <c r="AR12" t="s"/>
-      <c r="AS12" t="s"/>
-      <c r="AT12" t="s"/>
-      <c r="AU12" t="s"/>
-      <c r="AV12" t="s"/>
-      <c r="AW12" t="s"/>
-      <c r="AX12" t="s"/>
-      <c r="AY12" t="s"/>
-      <c r="AZ12" t="s"/>
-      <c r="BA12" t="n">
-        <v>12984.83259029</v>
+      <c r="C12" t="n">
+        <v>69050.46232034999</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19422.55614694</v>
+      </c>
+      <c r="E12" t="n">
+        <v>28122.22611499</v>
+      </c>
+      <c r="F12" t="n">
+        <v>29996.94617243</v>
+      </c>
+      <c r="G12" t="n">
+        <v>36503.64581368</v>
+      </c>
+      <c r="H12" t="n">
+        <v>13732.54072182</v>
+      </c>
+      <c r="I12" t="n">
+        <v>45029.64286583</v>
+      </c>
+      <c r="J12" t="n">
+        <v>30924.62076273</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11382.53790914</v>
+      </c>
+      <c r="L12" t="n">
+        <v>14267.75668087</v>
+      </c>
+      <c r="M12" t="n">
+        <v>45467.80464673</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6427.21714875</v>
+      </c>
+      <c r="O12" t="n">
+        <v>48133.04812617</v>
+      </c>
+      <c r="P12" t="n">
+        <v>50594.82950837</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>11422.06091309</v>
+      </c>
+      <c r="R12" t="n">
+        <v>12123.42741637</v>
+      </c>
+      <c r="S12" t="n">
+        <v>8474.1084919</v>
+      </c>
+      <c r="T12" t="n">
+        <v>54053.29753628</v>
+      </c>
+      <c r="U12" t="n">
+        <v>45131.5629024</v>
+      </c>
+      <c r="V12" t="n">
+        <v>11543.26835574</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5938.41233102</v>
+      </c>
+      <c r="X12" t="n">
+        <v>32009.37661167</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>17832.32609609</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>49937.33187146</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>7263.54459627</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>42899.81677727</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>13903.6671446</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>23300.23950353</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15362.41712317</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25876.83753232</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10436.0911196</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>22025.32803951</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>15120.74087843</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>7428.74449055</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34814.69992032</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>36941.22379485</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>18196.91846801</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>13406.53494004</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15782.14312531</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>23545.90520804</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>35606.36616141</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>29786.16759047</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>13584.61311902</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>13025.53364115</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>26945.4506945</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>20078.17277932</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>36196.91667273</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>11627.99959506</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>38485.9387824</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>25242.95703506</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="n">
-        <v>2329</v>
+        <v>0.9</v>
       </c>
       <c r="B13" t="n">
         <v>8751.612097839999</v>
       </c>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
-      <c r="M13" t="s"/>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
-      <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
-      <c r="V13" t="s"/>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
-      <c r="Z13" t="s"/>
-      <c r="AA13" t="s"/>
-      <c r="AB13" t="s"/>
-      <c r="AC13" t="s"/>
-      <c r="AD13" t="s"/>
-      <c r="AE13" t="s"/>
-      <c r="AF13" t="s"/>
-      <c r="AG13" t="s"/>
-      <c r="AH13" t="s"/>
-      <c r="AI13" t="s"/>
-      <c r="AJ13" t="s"/>
-      <c r="AK13" t="s"/>
-      <c r="AL13" t="s"/>
-      <c r="AM13" t="s"/>
-      <c r="AN13" t="s"/>
-      <c r="AO13" t="s"/>
-      <c r="AP13" t="s"/>
-      <c r="AQ13" t="s"/>
-      <c r="AR13" t="s"/>
-      <c r="AS13" t="s"/>
-      <c r="AT13" t="s"/>
-      <c r="AU13" t="s"/>
-      <c r="AV13" t="s"/>
-      <c r="AW13" t="s"/>
-      <c r="AX13" t="s"/>
-      <c r="AY13" t="s"/>
-      <c r="AZ13" t="s"/>
-      <c r="BA13" t="n">
-        <v>8751.612097839999</v>
+      <c r="C13" t="n">
+        <v>59978.07895253</v>
+      </c>
+      <c r="D13" t="n">
+        <v>14557.64736929</v>
+      </c>
+      <c r="E13" t="n">
+        <v>28028.60162132</v>
+      </c>
+      <c r="F13" t="n">
+        <v>27392.64328693</v>
+      </c>
+      <c r="G13" t="n">
+        <v>36271.98048046</v>
+      </c>
+      <c r="H13" t="n">
+        <v>13732.54072182</v>
+      </c>
+      <c r="I13" t="n">
+        <v>45029.64286583</v>
+      </c>
+      <c r="J13" t="n">
+        <v>17228.88618586</v>
+      </c>
+      <c r="K13" t="n">
+        <v>7711.98273935</v>
+      </c>
+      <c r="L13" t="n">
+        <v>10478.36562486</v>
+      </c>
+      <c r="M13" t="n">
+        <v>28853.35740359</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6179.09394461</v>
+      </c>
+      <c r="O13" t="n">
+        <v>17022.26835116</v>
+      </c>
+      <c r="P13" t="n">
+        <v>23479.53311208</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4028.71680819</v>
+      </c>
+      <c r="R13" t="n">
+        <v>9237.483283899999</v>
+      </c>
+      <c r="S13" t="n">
+        <v>8360.19762021</v>
+      </c>
+      <c r="T13" t="n">
+        <v>33724.30047292</v>
+      </c>
+      <c r="U13" t="n">
+        <v>19686.024688</v>
+      </c>
+      <c r="V13" t="n">
+        <v>11543.26835574</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5749.53013649</v>
+      </c>
+      <c r="X13" t="n">
+        <v>22839.1867064</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15343.57558366</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>21504.27528482</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>6679.3824928</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>17431.83890742</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>13714.28658332</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>14026.70657669</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>10864.59765284</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>15523.82285989</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>5958.53873031</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7580.84636775</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>13759.14690908</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>4571.85905568</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>25872.59523469</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>36941.22379485</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>6973.5178217</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>9570.37611795</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>7018.74693609</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>9482.539477480001</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>20961.32806089</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>28987.67425827</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>11706.19096153</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>12625.86813017</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>23517.17903869</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>12200.32593903</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>16320.9132802</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>11557.49078747</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>16093.71363067</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>17133.07006607</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1" t="n">
-        <v>2588</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>8751.612097839999</v>
       </c>
-      <c r="C14" t="s"/>
-      <c r="D14" t="s"/>
-      <c r="E14" t="s"/>
-      <c r="F14" t="s"/>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s"/>
-      <c r="J14" t="s"/>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
-      <c r="M14" t="s"/>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
-      <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
-      <c r="V14" t="s"/>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
-      <c r="Z14" t="s"/>
-      <c r="AA14" t="s"/>
-      <c r="AB14" t="s"/>
-      <c r="AC14" t="s"/>
-      <c r="AD14" t="s"/>
-      <c r="AE14" t="s"/>
-      <c r="AF14" t="s"/>
-      <c r="AG14" t="s"/>
-      <c r="AH14" t="s"/>
-      <c r="AI14" t="s"/>
-      <c r="AJ14" t="s"/>
-      <c r="AK14" t="s"/>
-      <c r="AL14" t="s"/>
-      <c r="AM14" t="s"/>
-      <c r="AN14" t="s"/>
-      <c r="AO14" t="s"/>
-      <c r="AP14" t="s"/>
-      <c r="AQ14" t="s"/>
-      <c r="AR14" t="s"/>
-      <c r="AS14" t="s"/>
-      <c r="AT14" t="s"/>
-      <c r="AU14" t="s"/>
-      <c r="AV14" t="s"/>
-      <c r="AW14" t="s"/>
-      <c r="AX14" t="s"/>
-      <c r="AY14" t="s"/>
-      <c r="AZ14" t="s"/>
-      <c r="BA14" t="n">
-        <v>8751.612097839999</v>
+      <c r="C14" t="n">
+        <v>28321.22578205</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6216.92310087</v>
+      </c>
+      <c r="E14" t="n">
+        <v>28028.60162132</v>
+      </c>
+      <c r="F14" t="n">
+        <v>14612.13658317</v>
+      </c>
+      <c r="G14" t="n">
+        <v>20685.25156861</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7603.50779387</v>
+      </c>
+      <c r="I14" t="n">
+        <v>31607.65079793</v>
+      </c>
+      <c r="J14" t="n">
+        <v>15155.04276763</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7690.00991709</v>
+      </c>
+      <c r="L14" t="n">
+        <v>8391.92925902</v>
+      </c>
+      <c r="M14" t="n">
+        <v>18737.21852851</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3069.08735017</v>
+      </c>
+      <c r="O14" t="n">
+        <v>15496.15345344</v>
+      </c>
+      <c r="P14" t="n">
+        <v>19944.03603351</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5.85206274</v>
+      </c>
+      <c r="R14" t="n">
+        <v>9108.3012193</v>
+      </c>
+      <c r="S14" t="n">
+        <v>6991.90589403</v>
+      </c>
+      <c r="T14" t="n">
+        <v>18546.57072232</v>
+      </c>
+      <c r="U14" t="n">
+        <v>19686.024688</v>
+      </c>
+      <c r="V14" t="n">
+        <v>9189.424873510001</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5664.79858639</v>
+      </c>
+      <c r="X14" t="n">
+        <v>20272.16776604</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>14422.21793575</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>13992.52215564</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>6481.61758177</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>16872.50002336</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>13714.28658332</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7332.26505745</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>8110.74108159</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>15523.82285989</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>2385.2223826</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>4720.43206373</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>11957.72242052</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>4571.85905568</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>23412.41827453</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>14336.96185426</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>6943.52931701</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>8933.076257229999</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>7018.74693609</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>8975.670076279999</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>10591.30832434</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>21280.06344009</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>5159.70979629</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>7325.71781551</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>16226.07730813</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>6400.77323501</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>15284.45002675</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>8513.844844040001</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>8503.23534682</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>12255.32449042</v>
       </c>
     </row>
   </sheetData>
